--- a/data/product_cate.xlsx
+++ b/data/product_cate.xlsx
@@ -2375,7 +2375,7 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <family val="2"/>
     </font>
